--- a/src/predicciones/holt_winters/producto_203.xlsx
+++ b/src/predicciones/holt_winters/producto_203.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1267 +404,1025 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44929</v>
       </c>
       <c r="B2">
-        <v>1.01519480296597</v>
+        <v>1.053533014476205</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44930</v>
       </c>
       <c r="B3">
-        <v>1.041939678981896</v>
+        <v>1.333275443056535</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44940</v>
       </c>
       <c r="B4">
-        <v>1.056398032778471</v>
+        <v>1.25001286836971</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44943</v>
       </c>
       <c r="B5">
-        <v>1.058822651081231</v>
+        <v>1.665679276668376</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44947</v>
       </c>
       <c r="B6">
-        <v>1.051143165377935</v>
+        <v>1.271633953370859</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44951</v>
       </c>
       <c r="B7">
-        <v>1.036895845970221</v>
+        <v>1.711016301258925</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44955</v>
       </c>
       <c r="B8">
-        <v>0.9993979690803547</v>
+        <v>1.970151902821059</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44961</v>
       </c>
       <c r="B9">
-        <v>1.036316594752541</v>
+        <v>1.054430385888085</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44963</v>
       </c>
       <c r="B10">
-        <v>1.063061470768467</v>
+        <v>1.334172814468416</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44971</v>
       </c>
       <c r="B11">
-        <v>1.077519824565043</v>
+        <v>1.250910239781591</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44972</v>
       </c>
       <c r="B12">
-        <v>1.079944442867802</v>
+        <v>1.666576648080256</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44974</v>
       </c>
       <c r="B13">
-        <v>1.072264957164507</v>
+        <v>1.272531324782739</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44976</v>
       </c>
       <c r="B14">
-        <v>1.058017637756793</v>
+        <v>1.711913672670805</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44989</v>
       </c>
       <c r="B15">
-        <v>1.020519760866926</v>
+        <v>1.97104927423294</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44992</v>
       </c>
       <c r="B16">
-        <v>1.057438386539113</v>
+        <v>1.055327757299966</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44993</v>
       </c>
       <c r="B17">
-        <v>1.084183262555039</v>
+        <v>1.335070185880296</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44994</v>
       </c>
       <c r="B18">
-        <v>1.098641616351614</v>
+        <v>1.251807611193471</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45007</v>
       </c>
       <c r="B19">
-        <v>1.101066234654374</v>
+        <v>1.667474019492136</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45022</v>
       </c>
       <c r="B20">
-        <v>1.093386748951078</v>
+        <v>1.27342869619462</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45028</v>
       </c>
       <c r="B21">
-        <v>1.079139429543364</v>
+        <v>1.712811044082685</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45034</v>
       </c>
       <c r="B22">
-        <v>1.041641552653498</v>
+        <v>1.97194664564482</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45038</v>
       </c>
       <c r="B23">
-        <v>1.078560178325684</v>
+        <v>1.056225128711846</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45040</v>
       </c>
       <c r="B24">
-        <v>1.10530505434161</v>
+        <v>1.335967557292176</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45042</v>
       </c>
       <c r="B25">
-        <v>1.119763408138186</v>
+        <v>1.252704982605351</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45044</v>
       </c>
       <c r="B26">
-        <v>1.122188026440945</v>
+        <v>1.668371390904017</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45048</v>
       </c>
       <c r="B27">
-        <v>1.11450854073765</v>
+        <v>1.2743260676065</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45049</v>
       </c>
       <c r="B28">
-        <v>1.100261221329936</v>
+        <v>1.713708415494565</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45051</v>
       </c>
       <c r="B29">
-        <v>1.062763344440069</v>
+        <v>1.9728440170567</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45060</v>
       </c>
       <c r="B30">
-        <v>1.099681970112256</v>
+        <v>1.057122500123726</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45069</v>
       </c>
       <c r="B31">
-        <v>1.126426846128182</v>
+        <v>1.336864928704056</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45070</v>
       </c>
       <c r="B32">
-        <v>1.140885199924757</v>
+        <v>1.253602354017231</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45080</v>
       </c>
       <c r="B33">
-        <v>1.143309818227517</v>
+        <v>1.669268762315897</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45081</v>
       </c>
       <c r="B34">
-        <v>1.135630332524221</v>
+        <v>1.27522343901838</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45085</v>
       </c>
       <c r="B35">
-        <v>1.121383013116507</v>
+        <v>1.714605786906445</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45089</v>
       </c>
       <c r="B36">
-        <v>1.083885136226641</v>
+        <v>1.97374138846858</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45101</v>
       </c>
       <c r="B37">
-        <v>1.120803761898827</v>
+        <v>1.058019871535606</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45106</v>
       </c>
       <c r="B38">
-        <v>1.147548637914753</v>
+        <v>1.337762300115936</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45122</v>
       </c>
       <c r="B39">
-        <v>1.162006991711329</v>
+        <v>1.254499725429111</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45127</v>
       </c>
       <c r="B40">
-        <v>1.164431610014088</v>
+        <v>1.670166133727777</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45129</v>
       </c>
       <c r="B41">
-        <v>1.156752124310793</v>
+        <v>1.27612081043026</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45130</v>
       </c>
       <c r="B42">
-        <v>1.142504804903079</v>
+        <v>1.715503158318326</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45134</v>
       </c>
       <c r="B43">
-        <v>1.105006928013212</v>
+        <v>1.97463875988046</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45135</v>
       </c>
       <c r="B44">
-        <v>1.141925553685398</v>
+        <v>1.058917242947486</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45142</v>
       </c>
       <c r="B45">
-        <v>1.168670429701325</v>
+        <v>1.338659671527817</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45148</v>
       </c>
       <c r="B46">
-        <v>1.1831287834979</v>
+        <v>1.255397096840992</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45162</v>
       </c>
       <c r="B47">
-        <v>1.18555340180066</v>
+        <v>1.671063505139657</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45175</v>
       </c>
       <c r="B48">
-        <v>1.177873916097364</v>
+        <v>1.27701818184214</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45180</v>
       </c>
       <c r="B49">
-        <v>1.16362659668965</v>
+        <v>1.716400529730206</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45186</v>
       </c>
       <c r="B50">
-        <v>1.126128719799784</v>
+        <v>1.975536131292341</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45190</v>
       </c>
       <c r="B51">
-        <v>1.16304734547197</v>
+        <v>1.059814614359366</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45197</v>
       </c>
       <c r="B52">
-        <v>1.189792221487896</v>
+        <v>1.339557042939697</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45204</v>
       </c>
       <c r="B53">
-        <v>1.204250575284472</v>
+        <v>1.256294468252872</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45205</v>
       </c>
       <c r="B54">
-        <v>1.206675193587231</v>
+        <v>1.671960876551537</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45206</v>
       </c>
       <c r="B55">
-        <v>1.198995707883936</v>
+        <v>1.27791555325402</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45211</v>
       </c>
       <c r="B56">
-        <v>1.184748388476222</v>
+        <v>1.717297901142086</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45217</v>
       </c>
       <c r="B57">
-        <v>1.147250511586355</v>
+        <v>1.976433502704221</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45219</v>
       </c>
       <c r="B58">
-        <v>1.184169137258542</v>
+        <v>1.060711985771247</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45222</v>
       </c>
       <c r="B59">
-        <v>1.210914013274468</v>
+        <v>1.340454414351577</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45223</v>
       </c>
       <c r="B60">
-        <v>1.225372367071043</v>
+        <v>1.257191839664752</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45232</v>
       </c>
       <c r="B61">
-        <v>1.227796985373803</v>
+        <v>1.672858247963418</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45233</v>
       </c>
       <c r="B62">
-        <v>1.220117499670507</v>
+        <v>1.2788129246659</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45235</v>
       </c>
       <c r="B63">
-        <v>1.205870180262793</v>
+        <v>1.718195272553966</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45238</v>
       </c>
       <c r="B64">
-        <v>1.168372303372927</v>
+        <v>1.977330874116101</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45240</v>
       </c>
       <c r="B65">
-        <v>1.205290929045113</v>
+        <v>1.061609357183127</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45243</v>
       </c>
       <c r="B66">
-        <v>1.232035805061039</v>
+        <v>1.341351785763457</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45245</v>
       </c>
       <c r="B67">
-        <v>1.246494158857615</v>
+        <v>1.258089211076632</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45251</v>
       </c>
       <c r="B68">
-        <v>1.248918777160374</v>
+        <v>1.673755619375298</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45252</v>
       </c>
       <c r="B69">
-        <v>1.241239291457079</v>
+        <v>1.279710296077781</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45264</v>
       </c>
       <c r="B70">
-        <v>1.226991972049364</v>
+        <v>1.719092643965846</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45265</v>
       </c>
       <c r="B71">
-        <v>1.189494095159498</v>
+        <v>1.978228245527981</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45266</v>
       </c>
       <c r="B72">
-        <v>1.226412720831684</v>
+        <v>1.062506728595007</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45267</v>
       </c>
       <c r="B73">
-        <v>1.253157596847611</v>
+        <v>1.342249157175337</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45269</v>
       </c>
       <c r="B74">
-        <v>1.267615950644186</v>
+        <v>1.258986582488512</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45274</v>
       </c>
       <c r="B75">
-        <v>1.270040568946946</v>
+        <v>1.674652990787178</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45275</v>
       </c>
       <c r="B76">
-        <v>1.26236108324365</v>
+        <v>1.280607667489661</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45276</v>
       </c>
       <c r="B77">
-        <v>1.248113763835936</v>
+        <v>1.719990015377726</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45280</v>
       </c>
       <c r="B78">
-        <v>1.21061588694607</v>
+        <v>1.979125616939861</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45284</v>
       </c>
       <c r="B79">
-        <v>1.247534512618256</v>
+        <v>1.063404100006887</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45286</v>
       </c>
       <c r="B80">
-        <v>1.274279388634182</v>
+        <v>1.343146528587217</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45289</v>
       </c>
       <c r="B81">
-        <v>1.288737742430758</v>
+        <v>1.259883953900392</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45294</v>
       </c>
       <c r="B82">
-        <v>1.291162360733517</v>
+        <v>1.675550362199058</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45296</v>
       </c>
       <c r="B83">
-        <v>1.283482875030222</v>
+        <v>1.281505038901541</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45302</v>
       </c>
       <c r="B84">
-        <v>1.269235555622508</v>
+        <v>1.720887386789607</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45306</v>
       </c>
       <c r="B85">
-        <v>1.231737678732641</v>
+        <v>1.980022988351742</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45309</v>
       </c>
       <c r="B86">
-        <v>1.268656304404828</v>
+        <v>1.064301471418767</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45310</v>
       </c>
       <c r="B87">
-        <v>1.295401180420753</v>
+        <v>1.344043899999098</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45315</v>
       </c>
       <c r="B88">
-        <v>1.309859534217329</v>
+        <v>1.260781325312273</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45318</v>
       </c>
       <c r="B89">
-        <v>1.312284152520089</v>
+        <v>1.676447733610938</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45322</v>
       </c>
       <c r="B90">
-        <v>1.304604666816793</v>
+        <v>1.282402410313421</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45326</v>
       </c>
       <c r="B91">
-        <v>1.290357347409079</v>
+        <v>1.721784758201487</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45331</v>
       </c>
       <c r="B92">
-        <v>1.252859470519213</v>
+        <v>1.980920359763622</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45333</v>
       </c>
       <c r="B93">
-        <v>1.289778096191399</v>
+        <v>1.065198842830647</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45339</v>
       </c>
       <c r="B94">
-        <v>1.316522972207325</v>
+        <v>1.344941271410978</v>
       </c>
       <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>1.330981326003901</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>1.33340594430666</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>1.325726458603365</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>1.311479139195651</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>1.273981262305784</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>1.31089988797797</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>1.337644763993896</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>1.352103117790472</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>1.354527736093232</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>1.346848250389936</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>1.332600930982222</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>1.295103054092356</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>1.332021679764542</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>1.358766555780468</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>1.373224909577044</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>1.375649527879803</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>1.367970042176508</v>
-      </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>1.353722722768794</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>1.316224845878927</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>1.353143471551113</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>1.37988834756704</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>1.394346701363615</v>
-      </c>
-      <c r="C116">
         <v>1</v>
       </c>
     </row>
